--- a/static/upload_template.xlsx
+++ b/static/upload_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MENGTA LIN\Desktop\project\wehelp\findstock\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9352A38-C74F-4B49-81EA-C09698A80131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EABA5E-4558-4334-A92D-324A48314E19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15160" windowHeight="7240" xr2:uid="{F73D4CD7-D5F3-4066-9FEB-33FF07DA2C3D}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>supplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>pn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146CBC06-95F4-4E3A-A15C-2EA3697A652C}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,9 +418,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
